--- a/Управление проектами/5.xlsx
+++ b/Управление проектами/5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\6_Semester\Управление проектами\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309CA6B4-31BE-4AE0-9F5D-97BB469AFCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0051D3E-8EFC-4CE1-A06B-2414A94FF6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>ТЗ</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Оптимистичные</t>
   </si>
   <si>
-    <t>продолжительность</t>
-  </si>
-  <si>
     <t>ранние начало</t>
   </si>
   <si>
@@ -115,6 +112,24 @@
   </si>
   <si>
     <t xml:space="preserve">Нет необходимости привлекать новых стотрудников так как даже в писимистичном расчёте проект будет готов через - </t>
+  </si>
+  <si>
+    <t>Обучение</t>
+  </si>
+  <si>
+    <t>Back-end разработка</t>
+  </si>
+  <si>
+    <t>Front-end разработка</t>
+  </si>
+  <si>
+    <t>альфа тестирование</t>
+  </si>
+  <si>
+    <t>бета тестирование</t>
+  </si>
+  <si>
+    <t>продолжительность(дней)</t>
   </si>
 </sst>
 </file>
@@ -122,14 +137,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-419]d\ mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,6 +167,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -167,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -295,87 +327,80 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1345,8 +1370,8 @@
       <xdr:rowOff>16330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>719242</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>316470</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>115276</xdr:rowOff>
     </xdr:to>
@@ -1649,13 +1674,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.53515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.69140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.84375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
@@ -1674,17 +1699,17 @@
       <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="18.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -1699,15 +1724,15 @@
       <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="12">
         <v>1</v>
       </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="36.450000000000003" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1720,21 +1745,21 @@
       <c r="D3" s="4">
         <v>25</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="13">
         <v>2</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="10"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4">
         <v>16</v>
@@ -1742,16 +1767,16 @@
       <c r="D4" s="4">
         <v>21</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="13">
         <v>2</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="36.450000000000003" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,15 +1789,15 @@
       <c r="D5" s="4">
         <v>45</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="13">
         <v>3</v>
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="36.450000000000003" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="18.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1785,15 +1810,15 @@
       <c r="D6" s="4">
         <v>14</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <v>3</v>
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="36.450000000000003" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="18.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1806,252 +1831,281 @@
       <c r="D7" s="4">
         <v>20</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="14">
         <v>3</v>
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A10" s="29"/>
+      <c r="B10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="14">
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="31">
         <v>44713</v>
       </c>
-      <c r="C11" s="14">
-        <f>B11+C2</f>
+      <c r="C11" s="31">
+        <f t="shared" ref="C11:C16" si="0">B11+C2</f>
         <v>44716</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="31">
         <v>44713</v>
       </c>
-      <c r="E11" s="14">
-        <f>D11+B2</f>
+      <c r="E11" s="31">
+        <f t="shared" ref="E11:E16" si="1">D11+B2</f>
         <v>44714</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="31">
         <v>44713</v>
       </c>
-      <c r="G11" s="14">
-        <f>F11+D2</f>
+      <c r="G11" s="31">
+        <f t="shared" ref="G11:G16" si="2">F11+D2</f>
         <v>44718</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="14">
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="31">
         <f>C11</f>
         <v>44716</v>
       </c>
-      <c r="C12" s="14">
-        <f>B12+C3</f>
+      <c r="C12" s="31">
+        <f t="shared" si="0"/>
         <v>44735</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="31">
         <f>E11</f>
         <v>44714</v>
       </c>
-      <c r="E12" s="14">
-        <f>D12+B3</f>
+      <c r="E12" s="31">
+        <f t="shared" si="1"/>
         <v>44721</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="31">
         <f>G11</f>
         <v>44718</v>
       </c>
-      <c r="G12" s="14">
-        <f>F12+D3</f>
+      <c r="G12" s="31">
+        <f t="shared" si="2"/>
         <v>44743</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="14">
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A13" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="31">
         <f>C11</f>
         <v>44716</v>
       </c>
-      <c r="C13" s="14">
-        <f>B13+C4</f>
+      <c r="C13" s="31">
+        <f t="shared" si="0"/>
         <v>44732</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="31">
         <f>E11</f>
         <v>44714</v>
       </c>
-      <c r="E13" s="14">
-        <f>D13+B4</f>
-        <v>44715</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="E13" s="31">
+        <f t="shared" si="1"/>
+        <v>44719</v>
+      </c>
+      <c r="F13" s="31">
         <f>G11</f>
         <v>44718</v>
       </c>
-      <c r="G13" s="14">
-        <f>F13+D4</f>
+      <c r="G13" s="31">
+        <f t="shared" si="2"/>
         <v>44739</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="14">
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="31">
         <f>IF(C12&gt;C13,C12,C13)+1</f>
         <v>44736</v>
       </c>
-      <c r="C14" s="14">
-        <f>B14+C5</f>
+      <c r="C14" s="31">
+        <f t="shared" si="0"/>
         <v>44771</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="31">
         <f>IF(E12&gt;E13,E12,E13)+1</f>
         <v>44722</v>
       </c>
-      <c r="E14" s="14">
-        <f>D14+B5</f>
+      <c r="E14" s="31">
+        <f t="shared" si="1"/>
         <v>44743</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="31">
         <f>IF(G12&gt;G13,G12,G13)+1</f>
         <v>44744</v>
       </c>
-      <c r="G14" s="14">
-        <f>F14+D5</f>
+      <c r="G14" s="31">
+        <f t="shared" si="2"/>
         <v>44789</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="14">
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A15" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="31">
         <f>C14</f>
         <v>44771</v>
       </c>
-      <c r="C15" s="14">
-        <f>B15+C6</f>
+      <c r="C15" s="31">
+        <f t="shared" si="0"/>
         <v>44781</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="31">
         <f>E14</f>
         <v>44743</v>
       </c>
-      <c r="E15" s="14">
-        <f>D15+B6</f>
+      <c r="E15" s="31">
+        <f t="shared" si="1"/>
         <v>44744</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="31">
         <f>G14</f>
         <v>44789</v>
       </c>
-      <c r="G15" s="14">
-        <f>F15+D6</f>
+      <c r="G15" s="31">
+        <f t="shared" si="2"/>
         <v>44803</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="22">
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="31">
         <f>C15</f>
         <v>44781</v>
       </c>
-      <c r="C16" s="22">
-        <f>B16+C7</f>
+      <c r="C16" s="31">
+        <f t="shared" si="0"/>
         <v>44795</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="31">
         <f>E15</f>
         <v>44744</v>
       </c>
-      <c r="E16" s="22">
-        <f>D16+B7</f>
+      <c r="E16" s="31">
+        <f t="shared" si="1"/>
         <v>44746</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="31">
         <f>G15</f>
         <v>44803</v>
       </c>
-      <c r="G16" s="22">
-        <f>F16+D7</f>
+      <c r="G16" s="31">
+        <f t="shared" si="2"/>
         <v>44823</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="23">
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="32">
         <f>C16-B11</f>
         <v>82</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32">
         <f>E16-D11</f>
         <v>33</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23">
+      <c r="E17" s="32"/>
+      <c r="F17" s="32">
         <f>G16-F11</f>
         <v>110</v>
       </c>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G17" s="32"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="28">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="21">
         <f>B11</f>
         <v>44713</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="21">
         <f>C11</f>
         <v>44716</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="21">
         <f>B11</f>
         <v>44713</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="21">
         <f>C11</f>
         <v>44716</v>
       </c>
@@ -2060,149 +2114,149 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="28">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="21">
         <f>B12</f>
         <v>44716</v>
       </c>
-      <c r="B22" s="28">
-        <f t="shared" ref="B22:B26" si="0">C12</f>
+      <c r="B22" s="21">
+        <f t="shared" ref="B22:B26" si="3">C12</f>
         <v>44735</v>
       </c>
-      <c r="C22" s="28">
-        <f t="shared" ref="C22:D26" si="1">B12</f>
+      <c r="C22" s="21">
+        <f t="shared" ref="C22:D26" si="4">B12</f>
         <v>44716</v>
       </c>
-      <c r="D22" s="28">
-        <f t="shared" si="1"/>
+      <c r="D22" s="21">
+        <f t="shared" si="4"/>
         <v>44735</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" ref="E22:E26" si="2">D22-B22</f>
+        <f t="shared" ref="E22:E26" si="5">D22-B22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="14">
-        <f t="shared" ref="A23:C27" si="3">B13</f>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="10">
+        <f t="shared" ref="A23:A26" si="6">B13</f>
         <v>44716</v>
       </c>
-      <c r="B23" s="14">
-        <f t="shared" si="0"/>
+      <c r="B23" s="10">
+        <f t="shared" si="3"/>
         <v>44732</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="10">
         <f>D23-C4</f>
         <v>44719</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="10">
         <f>D22</f>
         <v>44735</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="28">
-        <f t="shared" si="3"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="21">
+        <f t="shared" si="6"/>
         <v>44736</v>
       </c>
-      <c r="B24" s="28">
-        <f t="shared" si="0"/>
-        <v>44771</v>
-      </c>
-      <c r="C24" s="28">
-        <f t="shared" si="1"/>
-        <v>44736</v>
-      </c>
-      <c r="D24" s="28">
-        <f t="shared" si="1"/>
-        <v>44771</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="28">
+      <c r="B24" s="21">
         <f t="shared" si="3"/>
         <v>44771</v>
       </c>
-      <c r="B25" s="28">
-        <f t="shared" si="0"/>
-        <v>44781</v>
-      </c>
-      <c r="C25" s="28">
-        <f t="shared" si="1"/>
+      <c r="C24" s="21">
+        <f t="shared" si="4"/>
+        <v>44736</v>
+      </c>
+      <c r="D24" s="21">
+        <f t="shared" si="4"/>
         <v>44771</v>
       </c>
-      <c r="D25" s="28">
-        <f t="shared" si="1"/>
-        <v>44781</v>
-      </c>
-      <c r="E25" s="6">
-        <f t="shared" si="2"/>
+      <c r="E24" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="28">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="21">
+        <f t="shared" si="6"/>
+        <v>44771</v>
+      </c>
+      <c r="B25" s="21">
         <f t="shared" si="3"/>
         <v>44781</v>
       </c>
-      <c r="B26" s="28">
-        <f t="shared" si="0"/>
+      <c r="C25" s="21">
+        <f t="shared" si="4"/>
+        <v>44771</v>
+      </c>
+      <c r="D25" s="21">
+        <f t="shared" si="4"/>
+        <v>44781</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="21">
+        <f t="shared" si="6"/>
+        <v>44781</v>
+      </c>
+      <c r="B26" s="21">
+        <f t="shared" si="3"/>
         <v>44795</v>
       </c>
-      <c r="C26" s="28">
-        <f t="shared" si="1"/>
+      <c r="C26" s="21">
+        <f t="shared" si="4"/>
         <v>44781</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="21">
         <f>C16</f>
         <v>44795</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="20">
         <f>F17</f>
         <v>110</v>
       </c>

--- a/Управление проектами/5.xlsx
+++ b/Управление проектами/5.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\6_Semester\Управление проектами\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3794DEE4-239B-45EF-99DB-5D87675E606A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,106 +27,106 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
-    <t xml:space="preserve">Столбец</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оптимистичные</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наиболее вероятные</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Писимистичные</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполняющий задачу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Приоритет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЗ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">менеджер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">обучение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">програмисты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дизайн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fron-end програмист</t>
-  </si>
-  <si>
-    <t xml:space="preserve">back-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">альфа тест</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бета тест</t>
-  </si>
-  <si>
-    <t xml:space="preserve">наиболее вероятные</t>
-  </si>
-  <si>
-    <t xml:space="preserve">оптимистичные</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пессимистичные</t>
-  </si>
-  <si>
-    <t xml:space="preserve">начало</t>
-  </si>
-  <si>
-    <t xml:space="preserve">конец</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обучение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front-end разработка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back-end разработка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">альфа тестирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бета тестирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">продолжительность(дней)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ранние начало</t>
-  </si>
-  <si>
-    <t xml:space="preserve">раннее окончание</t>
+    <t>Столбец</t>
+  </si>
+  <si>
+    <t>Оптимистичные</t>
+  </si>
+  <si>
+    <t>Наиболее вероятные</t>
+  </si>
+  <si>
+    <t>Писимистичные</t>
+  </si>
+  <si>
+    <t>Выполняющий задачу</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>ТЗ</t>
+  </si>
+  <si>
+    <t>менеджер</t>
+  </si>
+  <si>
+    <t>обучение</t>
+  </si>
+  <si>
+    <t>програмисты</t>
+  </si>
+  <si>
+    <t>дизайн</t>
+  </si>
+  <si>
+    <t>fron-end програмист</t>
+  </si>
+  <si>
+    <t>back-end</t>
+  </si>
+  <si>
+    <t>альфа тест</t>
+  </si>
+  <si>
+    <t>бета тест</t>
+  </si>
+  <si>
+    <t>наиболее вероятные</t>
+  </si>
+  <si>
+    <t>оптимистичные</t>
+  </si>
+  <si>
+    <t>пессимистичные</t>
+  </si>
+  <si>
+    <t>начало</t>
+  </si>
+  <si>
+    <t>конец</t>
+  </si>
+  <si>
+    <t>Обучение</t>
+  </si>
+  <si>
+    <t>Front-end разработка</t>
+  </si>
+  <si>
+    <t>Back-end разработка</t>
+  </si>
+  <si>
+    <t>альфа тестирование</t>
+  </si>
+  <si>
+    <t>бета тестирование</t>
+  </si>
+  <si>
+    <t>продолжительность(дней)</t>
+  </si>
+  <si>
+    <t>ранние начало</t>
+  </si>
+  <si>
+    <t>раннее окончание</t>
   </si>
   <si>
     <t xml:space="preserve">познее начало </t>
   </si>
   <si>
-    <t xml:space="preserve">поздее окончание</t>
-  </si>
-  <si>
-    <t xml:space="preserve">резервы времени</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-критический путь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сетевой график</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вероятноть уложиться встроки - большая</t>
+    <t>поздее окончание</t>
+  </si>
+  <si>
+    <t>резервы времени</t>
+  </si>
+  <si>
+    <t>-критический путь</t>
+  </si>
+  <si>
+    <t>Сетевой график</t>
+  </si>
+  <si>
+    <t>Вероятноть уложиться встроки - большая</t>
   </si>
   <si>
     <t xml:space="preserve">Нет необходимости привлекать новых стотрудников так как даже в писимистичном расчёте проект будет готов через - </t>
@@ -130,35 +135,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-419]d\ mmm;@"/>
-    <numFmt numFmtId="167" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="14"/>
@@ -180,12 +168,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -209,251 +191,213 @@
     </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -512,18 +456,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart127.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -550,18 +513,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -570,8 +541,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -608,7 +580,7 @@
             <c:numRef>
               <c:f>Лист1!$B$11:$B$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>[$-419]d\ mmm;@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>44713</c:v>
@@ -631,6 +603,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6551-481A-896F-5D5B2D33CA61}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -639,16 +616,19 @@
             <c:strRef>
               <c:f>Лист1!$C$1:$C$2</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Наиболее вероятные 3</c:v>
+                  <c:v>Наиболее вероятные</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:srgbClr val="ED7D31"/>
             </a:solidFill>
             <a:ln w="0">
               <a:noFill/>
@@ -656,18 +636,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -676,8 +664,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -737,7 +726,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6551-481A-896F-5D5B2D33CA61}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="182"/>
         <c:overlap val="100"/>
         <c:axId val="15223928"/>
@@ -749,7 +751,7 @@
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -757,7 +759,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -767,13 +769,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="69663231"/>
@@ -790,12 +793,12 @@
           <c:min val="44713"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -815,13 +818,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="15223928"/>
@@ -837,23 +841,29 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -867,14 +877,20 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Диаграмма 3"/>
+        <xdr:cNvPr id="2" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9452160" y="43560"/>
-        <a:ext cx="4362840" cy="1746720"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -899,11 +915,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Рисунок 4" descr=""/>
+        <xdr:cNvPr id="3" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -924,618 +946,1043 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="18.69"/>
+    <col min="1" max="1" width="36.53515625" customWidth="1"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="13.84375" customWidth="1"/>
+    <col min="4" max="4" width="16.69140625" customWidth="1"/>
+    <col min="5" max="5" width="18.69140625" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" customWidth="1"/>
+    <col min="7" max="8" width="18.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="36" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="15">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="7">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="17">
         <v>1</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="8">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="8">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="14">
         <v>25</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="10">
         <v>2</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="14">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="14">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="14">
         <v>21</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="10">
         <v>2</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="14">
         <v>21</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="14">
         <v>35</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="14">
         <v>45</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="10">
         <v>3</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="14">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="14">
         <v>14</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="10">
         <v>3</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="14">
         <v>14</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="14">
         <v>20</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="20">
         <v>3</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="21"/>
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20"/>
-      <c r="B10" s="15" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:15" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A10" s="23"/>
+      <c r="B10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:15" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="25">
         <v>44713</v>
       </c>
-      <c r="C11" s="22" t="n">
-        <f aca="false">B11+C2</f>
+      <c r="C11" s="25">
+        <f t="shared" ref="C11:C16" si="0">B11+C2</f>
         <v>44716</v>
       </c>
-      <c r="D11" s="22" t="n">
+      <c r="D11" s="25">
         <v>44713</v>
       </c>
-      <c r="E11" s="22" t="n">
-        <f aca="false">D11+B2</f>
+      <c r="E11" s="25">
+        <f t="shared" ref="E11:E16" si="1">D11+B2</f>
         <v>44714</v>
       </c>
-      <c r="F11" s="22" t="n">
+      <c r="F11" s="25">
         <v>44713</v>
       </c>
-      <c r="G11" s="22" t="n">
-        <f aca="false">F11+D2</f>
+      <c r="G11" s="25">
+        <f t="shared" ref="G11:G16" si="2">F11+D2</f>
         <v>44718</v>
       </c>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
+      <c r="H11" s="22">
+        <f>C11-B11+1</f>
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f>E11-D11+1</f>
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f>G11-F11+1</f>
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <f>I11*8</f>
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="M11:N16" si="3">J11*8</f>
+        <v>48</v>
+      </c>
+      <c r="O11">
+        <f>H11*8</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="22" t="n">
-        <f aca="false">C11</f>
+      <c r="B12" s="25">
+        <f>C11</f>
         <v>44716</v>
       </c>
-      <c r="C12" s="22" t="n">
-        <f aca="false">B12+C3</f>
+      <c r="C12" s="25">
+        <f t="shared" si="0"/>
         <v>44735</v>
       </c>
-      <c r="D12" s="22" t="n">
-        <f aca="false">E11</f>
+      <c r="D12" s="25">
+        <f>E11</f>
         <v>44714</v>
       </c>
-      <c r="E12" s="22" t="n">
-        <f aca="false">D12+B3</f>
+      <c r="E12" s="25">
+        <f t="shared" si="1"/>
         <v>44721</v>
       </c>
-      <c r="F12" s="22" t="n">
-        <f aca="false">G11</f>
+      <c r="F12" s="25">
+        <f>G11</f>
         <v>44718</v>
       </c>
-      <c r="G12" s="22" t="n">
-        <f aca="false">F12+D3</f>
+      <c r="G12" s="25">
+        <f t="shared" si="2"/>
         <v>44743</v>
       </c>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
+      <c r="H12" s="22">
+        <f t="shared" ref="H12:H16" si="4">C12-B12+1</f>
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I16" si="5">E12-D12+1</f>
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J16" si="6">G12-F12+1</f>
+        <v>26</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="O12">
+        <f>H12*8</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="22" t="n">
-        <f aca="false">C11</f>
+      <c r="B13" s="25">
+        <f>C11</f>
         <v>44716</v>
       </c>
-      <c r="C13" s="22" t="n">
-        <f aca="false">B13+C4</f>
+      <c r="C13" s="25">
+        <f t="shared" si="0"/>
         <v>44732</v>
       </c>
-      <c r="D13" s="22" t="n">
-        <f aca="false">E11</f>
+      <c r="D13" s="25">
+        <f>E11</f>
         <v>44714</v>
       </c>
-      <c r="E13" s="22" t="n">
-        <f aca="false">D13+B4</f>
+      <c r="E13" s="25">
+        <f t="shared" si="1"/>
         <v>44719</v>
       </c>
-      <c r="F13" s="22" t="n">
-        <f aca="false">G11</f>
+      <c r="F13" s="25">
+        <f>G11</f>
         <v>44718</v>
       </c>
-      <c r="G13" s="22" t="n">
-        <f aca="false">F13+D4</f>
+      <c r="G13" s="25">
+        <f t="shared" si="2"/>
         <v>44739</v>
       </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="H13" s="22">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="B14" s="22" t="n">
-        <f aca="false">IF(C12&gt;C13,C12,C13)+1</f>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="O13">
+        <f>H13*8</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="25">
+        <f>IF(C12&gt;C13,C12,C13)+1</f>
         <v>44736</v>
       </c>
-      <c r="C14" s="22" t="n">
-        <f aca="false">B14+C5</f>
+      <c r="C14" s="25">
+        <f t="shared" si="0"/>
         <v>44771</v>
       </c>
-      <c r="D14" s="22" t="n">
-        <f aca="false">IF(E12&gt;E13,E12,E13)+1</f>
+      <c r="D14" s="25">
+        <f>IF(E12&gt;E13,E12,E13)+1</f>
         <v>44722</v>
       </c>
-      <c r="E14" s="22" t="n">
-        <f aca="false">D14+B5</f>
+      <c r="E14" s="25">
+        <f t="shared" si="1"/>
         <v>44743</v>
       </c>
-      <c r="F14" s="22" t="n">
-        <f aca="false">IF(G12&gt;G13,G12,G13)+1</f>
+      <c r="F14" s="25">
+        <f>IF(G12&gt;G13,G12,G13)+1</f>
         <v>44744</v>
       </c>
-      <c r="G14" s="22" t="n">
-        <f aca="false">F14+D5</f>
+      <c r="G14" s="25">
+        <f t="shared" si="2"/>
         <v>44789</v>
       </c>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+      <c r="H14" s="22">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>368</v>
+      </c>
+      <c r="O14">
+        <f>H14*8</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="22" t="n">
-        <f aca="false">C14</f>
+      <c r="B15" s="25">
+        <f>C14</f>
         <v>44771</v>
       </c>
-      <c r="C15" s="22" t="n">
-        <f aca="false">B15+C6</f>
+      <c r="C15" s="25">
+        <f t="shared" si="0"/>
         <v>44781</v>
       </c>
-      <c r="D15" s="22" t="n">
-        <f aca="false">E14</f>
+      <c r="D15" s="25">
+        <f>E14</f>
         <v>44743</v>
       </c>
-      <c r="E15" s="22" t="n">
-        <f aca="false">D15+B6</f>
+      <c r="E15" s="25">
+        <f t="shared" si="1"/>
         <v>44744</v>
       </c>
-      <c r="F15" s="22" t="n">
-        <f aca="false">G14</f>
+      <c r="F15" s="25">
+        <f>G14</f>
         <v>44789</v>
       </c>
-      <c r="G15" s="22" t="n">
-        <f aca="false">F15+D6</f>
+      <c r="G15" s="25">
+        <f t="shared" si="2"/>
         <v>44803</v>
       </c>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+      <c r="H15" s="22">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="O15">
+        <f>H15*8</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="22" t="n">
-        <f aca="false">C15</f>
+      <c r="B16" s="25">
+        <f>C15</f>
         <v>44781</v>
       </c>
-      <c r="C16" s="22" t="n">
-        <f aca="false">B16+C7</f>
+      <c r="C16" s="25">
+        <f t="shared" si="0"/>
         <v>44795</v>
       </c>
-      <c r="D16" s="22" t="n">
-        <f aca="false">E15</f>
+      <c r="D16" s="25">
+        <f>E15</f>
         <v>44744</v>
       </c>
-      <c r="E16" s="22" t="n">
-        <f aca="false">D16+B7</f>
+      <c r="E16" s="25">
+        <f t="shared" si="1"/>
         <v>44746</v>
       </c>
-      <c r="F16" s="22" t="n">
-        <f aca="false">G15</f>
+      <c r="F16" s="25">
+        <f>G15</f>
         <v>44803</v>
       </c>
-      <c r="G16" s="22" t="n">
-        <f aca="false">F16+D7</f>
+      <c r="G16" s="25">
+        <f t="shared" si="2"/>
         <v>44823</v>
       </c>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="H16" s="22">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="O16">
+        <f>H16*8</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="23" t="n">
-        <f aca="false">C16-B11</f>
+      <c r="B17" s="3">
+        <f>C16-B11</f>
         <v>82</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23" t="n">
-        <f aca="false">E16-D11</f>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <f>E16-D11</f>
         <v>33</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23" t="n">
-        <f aca="false">G16-F11</f>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <f>G16-F11</f>
         <v>110</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="n">
-        <f aca="false">B11</f>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="27">
+        <f t="shared" ref="A21:B26" si="7">B11</f>
         <v>44713</v>
       </c>
-      <c r="B21" s="25" t="n">
-        <f aca="false">C11</f>
+      <c r="B21" s="27">
+        <f t="shared" si="7"/>
         <v>44716</v>
       </c>
-      <c r="C21" s="25" t="n">
-        <f aca="false">B11</f>
+      <c r="C21" s="27">
+        <f>B11</f>
         <v>44713</v>
       </c>
-      <c r="D21" s="25" t="n">
-        <f aca="false">C11</f>
+      <c r="D21" s="27">
+        <f>C11</f>
         <v>44716</v>
       </c>
-      <c r="E21" s="24" t="n">
-        <f aca="false">D21-B21</f>
+      <c r="E21" s="26">
+        <f t="shared" ref="E21:E26" si="8">D21-B21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="n">
-        <f aca="false">B12</f>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="27">
+        <f t="shared" si="7"/>
         <v>44716</v>
       </c>
-      <c r="B22" s="25" t="n">
-        <f aca="false">C12</f>
+      <c r="B22" s="27">
+        <f t="shared" si="7"/>
         <v>44735</v>
       </c>
-      <c r="C22" s="25" t="n">
-        <f aca="false">B12</f>
+      <c r="C22" s="27">
+        <f>B12</f>
         <v>44716</v>
       </c>
-      <c r="D22" s="25" t="n">
-        <f aca="false">C12</f>
+      <c r="D22" s="27">
+        <f>C12</f>
         <v>44735</v>
       </c>
-      <c r="E22" s="24" t="n">
-        <f aca="false">D22-B22</f>
+      <c r="E22" s="26">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="n">
-        <f aca="false">B13</f>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="28">
+        <f t="shared" si="7"/>
         <v>44716</v>
       </c>
-      <c r="B23" s="26" t="n">
-        <f aca="false">C13</f>
+      <c r="B23" s="28">
+        <f t="shared" si="7"/>
         <v>44732</v>
       </c>
-      <c r="C23" s="26" t="n">
-        <f aca="false">D23-C4</f>
+      <c r="C23" s="28">
+        <f>D23-C4</f>
         <v>44719</v>
       </c>
-      <c r="D23" s="26" t="n">
-        <f aca="false">D22</f>
+      <c r="D23" s="28">
+        <f>D22</f>
         <v>44735</v>
       </c>
-      <c r="E23" s="24" t="n">
-        <f aca="false">D23-B23</f>
+      <c r="E23" s="26">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25" t="n">
-        <f aca="false">B14</f>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="27">
+        <f t="shared" si="7"/>
         <v>44736</v>
       </c>
-      <c r="B24" s="25" t="n">
-        <f aca="false">C14</f>
+      <c r="B24" s="27">
+        <f t="shared" si="7"/>
         <v>44771</v>
       </c>
-      <c r="C24" s="25" t="n">
-        <f aca="false">B14</f>
+      <c r="C24" s="27">
+        <f t="shared" ref="C24:D26" si="9">B14</f>
         <v>44736</v>
       </c>
-      <c r="D24" s="25" t="n">
-        <f aca="false">C14</f>
+      <c r="D24" s="27">
+        <f t="shared" si="9"/>
         <v>44771</v>
       </c>
-      <c r="E24" s="24" t="n">
-        <f aca="false">D24-B24</f>
+      <c r="E24" s="26">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25" t="n">
-        <f aca="false">B15</f>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="27">
+        <f t="shared" si="7"/>
         <v>44771</v>
       </c>
-      <c r="B25" s="25" t="n">
-        <f aca="false">C15</f>
+      <c r="B25" s="27">
+        <f t="shared" si="7"/>
         <v>44781</v>
       </c>
-      <c r="C25" s="25" t="n">
-        <f aca="false">B15</f>
+      <c r="C25" s="27">
+        <f t="shared" si="9"/>
         <v>44771</v>
       </c>
-      <c r="D25" s="25" t="n">
-        <f aca="false">C15</f>
+      <c r="D25" s="27">
+        <f t="shared" si="9"/>
         <v>44781</v>
       </c>
-      <c r="E25" s="24" t="n">
-        <f aca="false">D25-B25</f>
+      <c r="E25" s="26">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="25" t="n">
-        <f aca="false">B16</f>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="27">
+        <f t="shared" si="7"/>
         <v>44781</v>
       </c>
-      <c r="B26" s="25" t="n">
-        <f aca="false">C16</f>
+      <c r="B26" s="27">
+        <f t="shared" si="7"/>
         <v>44795</v>
       </c>
-      <c r="C26" s="25" t="n">
-        <f aca="false">B16</f>
+      <c r="C26" s="27">
+        <f t="shared" si="9"/>
         <v>44781</v>
       </c>
-      <c r="D26" s="25" t="n">
-        <f aca="false">C16</f>
+      <c r="D26" s="27">
+        <f t="shared" si="9"/>
         <v>44795</v>
       </c>
-      <c r="E26" s="24" t="n">
-        <f aca="false">D26-B26</f>
+      <c r="E26" s="26">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="29"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="30" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="32" t="n">
-        <f aca="false">F17</f>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="32">
+        <f>F17</f>
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="A42:G42"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>